--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,6 +415,15 @@
       <c r="D1" t="str">
         <v>category_id</v>
       </c>
+      <c r="E1" t="str">
+        <v>discount</v>
+      </c>
+      <c r="F1" t="str">
+        <v>soldout</v>
+      </c>
+      <c r="G1" t="str">
+        <v>hidden</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -427,7 +436,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>false</v>
+      </c>
+      <c r="F2" t="str">
+        <v>false</v>
+      </c>
+      <c r="G2" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="3">
@@ -443,6 +461,15 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" t="str">
+        <v>false</v>
+      </c>
+      <c r="F3" t="str">
+        <v>false</v>
+      </c>
+      <c r="G3" t="str">
+        <v>false</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -457,6 +484,15 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="str">
+        <v>false</v>
+      </c>
+      <c r="F4" t="str">
+        <v>false</v>
+      </c>
+      <c r="G4" t="str">
+        <v>false</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -471,6 +507,15 @@
       <c r="D5">
         <v>4</v>
       </c>
+      <c r="E5" t="str">
+        <v>false</v>
+      </c>
+      <c r="F5" t="str">
+        <v>false</v>
+      </c>
+      <c r="G5" t="str">
+        <v>false</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -485,19 +530,37 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" t="str">
+        <v>false</v>
+      </c>
+      <c r="F6" t="str">
+        <v>false</v>
+      </c>
+      <c r="G6" t="str">
+        <v>false</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>POLLEN</v>
+        <v>Polen</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>false</v>
+      </c>
+      <c r="F7" t="str">
+        <v>false</v>
+      </c>
+      <c r="G7" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="8">
@@ -513,10 +576,65 @@
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8" t="str">
+        <v>false</v>
+      </c>
+      <c r="F8" t="str">
+        <v>false</v>
+      </c>
+      <c r="G8" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>prova</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <v>false</v>
+      </c>
+      <c r="F9" t="str">
+        <v>false</v>
+      </c>
+      <c r="G9" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ragnarog</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -416,13 +416,16 @@
         <v>category_id</v>
       </c>
       <c r="E1" t="str">
+        <v>soldout</v>
+      </c>
+      <c r="F1" t="str">
+        <v>hidden</v>
+      </c>
+      <c r="G1" t="str">
         <v>discount</v>
       </c>
-      <c r="F1" t="str">
-        <v>soldout</v>
-      </c>
-      <c r="G1" t="str">
-        <v>hidden</v>
+      <c r="H1" t="str">
+        <v>order</v>
       </c>
     </row>
     <row r="2">
@@ -445,7 +448,7 @@
         <v>false</v>
       </c>
       <c r="G2" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <v>false</v>
@@ -468,7 +471,7 @@
         <v>false</v>
       </c>
       <c r="G3" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
     </row>
     <row r="4">
@@ -622,19 +625,157 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="b">
+      <c r="E10" t="str">
+        <v>false</v>
+      </c>
+      <c r="F10" t="str">
+        <v>false</v>
+      </c>
+      <c r="G10" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>testttttt</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
+        <v>false</v>
+      </c>
+      <c r="F11" t="str">
+        <v>false</v>
+      </c>
+      <c r="G11" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ale</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="str">
+        <v>true</v>
+      </c>
+      <c r="F12" t="str">
+        <v>false</v>
+      </c>
+      <c r="G12" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>test</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
+      <c r="E13" t="str">
+        <v>false</v>
+      </c>
+      <c r="F13" t="str">
+        <v>false</v>
+      </c>
+      <c r="G13" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>dasdsad</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>false</v>
+      </c>
+      <c r="F14" t="str">
+        <v>false</v>
+      </c>
+      <c r="G14" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>false</v>
+      </c>
+      <c r="F15" t="str">
+        <v>false</v>
+      </c>
+      <c r="G15" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>ciao6</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>false</v>
+      </c>
+      <c r="F16" t="str">
+        <v>false</v>
+      </c>
+      <c r="G16" t="str">
+        <v>true</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -773,9 +773,676 @@
         <v>true</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>panna</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="str">
+        <v>false</v>
+      </c>
+      <c r="F17" t="str">
+        <v>false</v>
+      </c>
+      <c r="G17" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18" t="str">
+        <v>false</v>
+      </c>
+      <c r="F18" t="str">
+        <v>false</v>
+      </c>
+      <c r="G18" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" t="str">
+        <v>false</v>
+      </c>
+      <c r="F19" t="str">
+        <v>false</v>
+      </c>
+      <c r="G19" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="str">
+        <v>false</v>
+      </c>
+      <c r="F20" t="str">
+        <v>false</v>
+      </c>
+      <c r="G20" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21" t="str">
+        <v>false</v>
+      </c>
+      <c r="F21" t="str">
+        <v>false</v>
+      </c>
+      <c r="G21" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22" t="str">
+        <v>false</v>
+      </c>
+      <c r="F22" t="str">
+        <v>false</v>
+      </c>
+      <c r="G22" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="str">
+        <v>false</v>
+      </c>
+      <c r="F23" t="str">
+        <v>false</v>
+      </c>
+      <c r="G23" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24" t="str">
+        <v>false</v>
+      </c>
+      <c r="F24" t="str">
+        <v>false</v>
+      </c>
+      <c r="G24" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="str">
+        <v>false</v>
+      </c>
+      <c r="F25" t="str">
+        <v>false</v>
+      </c>
+      <c r="G25" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26" t="str">
+        <v>false</v>
+      </c>
+      <c r="F26" t="str">
+        <v>false</v>
+      </c>
+      <c r="G26" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27" t="str">
+        <v>false</v>
+      </c>
+      <c r="F27" t="str">
+        <v>false</v>
+      </c>
+      <c r="G27" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28" t="str">
+        <v>false</v>
+      </c>
+      <c r="F28" t="str">
+        <v>false</v>
+      </c>
+      <c r="G28" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="str">
+        <v>false</v>
+      </c>
+      <c r="F29" t="str">
+        <v>false</v>
+      </c>
+      <c r="G29" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" t="str">
+        <v>false</v>
+      </c>
+      <c r="F30" t="str">
+        <v>false</v>
+      </c>
+      <c r="G30" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31" t="str">
+        <v>false</v>
+      </c>
+      <c r="F31" t="str">
+        <v>false</v>
+      </c>
+      <c r="G31" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" t="str">
+        <v>false</v>
+      </c>
+      <c r="F32" t="str">
+        <v>false</v>
+      </c>
+      <c r="G32" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33" t="str">
+        <v>false</v>
+      </c>
+      <c r="F33" t="str">
+        <v>false</v>
+      </c>
+      <c r="G33" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34" t="str">
+        <v>false</v>
+      </c>
+      <c r="F34" t="str">
+        <v>false</v>
+      </c>
+      <c r="G34" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35" t="str">
+        <v>false</v>
+      </c>
+      <c r="F35" t="str">
+        <v>false</v>
+      </c>
+      <c r="G35" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36" t="str">
+        <v>false</v>
+      </c>
+      <c r="F36" t="str">
+        <v>false</v>
+      </c>
+      <c r="G36" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" t="str">
+        <v>false</v>
+      </c>
+      <c r="F37" t="str">
+        <v>false</v>
+      </c>
+      <c r="G37" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38" t="str">
+        <v>false</v>
+      </c>
+      <c r="F38" t="str">
+        <v>false</v>
+      </c>
+      <c r="G38" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="str">
+        <v>false</v>
+      </c>
+      <c r="F39" t="str">
+        <v>false</v>
+      </c>
+      <c r="G39" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" t="str">
+        <v>false</v>
+      </c>
+      <c r="F40" t="str">
+        <v>false</v>
+      </c>
+      <c r="G40" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>weedd</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41" t="str">
+        <v>false</v>
+      </c>
+      <c r="F41" t="str">
+        <v>false</v>
+      </c>
+      <c r="G41" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>RAINBOW COOKIE</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42" t="str">
+        <v>false</v>
+      </c>
+      <c r="F42" t="str">
+        <v>false</v>
+      </c>
+      <c r="G42" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>RAINBOW COOKIE</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43" t="str">
+        <v>false</v>
+      </c>
+      <c r="F43" t="str">
+        <v>false</v>
+      </c>
+      <c r="G43" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>RAINBOW COOKIE</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44" t="str">
+        <v>false</v>
+      </c>
+      <c r="F44" t="str">
+        <v>false</v>
+      </c>
+      <c r="G44" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>RAINBOW COOKIE</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="str">
+        <v>false</v>
+      </c>
+      <c r="F45" t="str">
+        <v>false</v>
+      </c>
+      <c r="G45" t="str">
+        <v>false</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11" t="str">
         <v>false</v>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E16" t="str">
         <v>false</v>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" t="str">
         <v>false</v>
@@ -1440,9 +1440,101 @@
         <v>false</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Wedding cake</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="str">
+        <v>false</v>
+      </c>
+      <c r="F46" t="str">
+        <v>false</v>
+      </c>
+      <c r="G46" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>TIRAMISU</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47" t="str">
+        <v>false</v>
+      </c>
+      <c r="F47" t="str">
+        <v>false</v>
+      </c>
+      <c r="G47" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>TIRAMISU</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48" t="str">
+        <v>false</v>
+      </c>
+      <c r="F48" t="str">
+        <v>false</v>
+      </c>
+      <c r="G48" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Oreo</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49" t="str">
+        <v>false</v>
+      </c>
+      <c r="F49" t="str">
+        <v>false</v>
+      </c>
+      <c r="G49" t="str">
+        <v>false</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H49"/>
   </ignoredErrors>
 </worksheet>
 </file>